--- a/TruthTable.xlsx
+++ b/TruthTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githubdir\TruthTableToLogicalExpression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2B1A00F-1D37-4781-89AA-373E5A919765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36991AF4-B091-4DD7-93D3-9F016E0792AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41D2F209-3FD4-4135-9B64-D9B1131429E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41D2F209-3FD4-4135-9B64-D9B1131429E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -431,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF33A530-BBDE-40C0-A17C-BAE7CF9F335E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,30 +453,39 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -482,15 +495,77 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
